--- a/template/potem15.xlsx
+++ b/template/potem15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/home/pan/highable/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E6B4B7F2-9FDF-E848-809D-A4DC51653C9B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{65A28789-699D-A84D-8C63-2E8C6BF685B8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="460" windowWidth="37380" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <r>
       <t xml:space="preserve">LABEL ORDER FORM     </t>
@@ -112,48 +112,6 @@
   </si>
   <si>
     <t>Unit Price</t>
-  </si>
-  <si>
-    <t>WGT2290</t>
-  </si>
-  <si>
-    <t>WGT2292</t>
-  </si>
-  <si>
-    <t>WWW3638</t>
-  </si>
-  <si>
-    <t>WWW3640</t>
-  </si>
-  <si>
-    <t>WWW3554</t>
-  </si>
-  <si>
-    <t>WWW3552</t>
-  </si>
-  <si>
-    <t>WWW3551</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>L</t>
   </si>
 </sst>
 </file>
@@ -256,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -436,46 +394,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,11 +408,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -512,66 +446,65 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -929,7 +862,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1092,8 +1025,8 @@
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1102,8 +1035,8 @@
       <c r="G6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1126,8 +1059,8 @@
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1136,7 +1069,7 @@
       <c r="G7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="31"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="32"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1160,7 +1093,7 @@
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="32"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1168,7 +1101,7 @@
       <c r="G8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="34"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="32"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1192,15 +1125,15 @@
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="35"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="32"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1280,16 +1213,16 @@
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="2"/>
       <c r="F12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="39"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1310,14 +1243,14 @@
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="37"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="2"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="37"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1338,14 +1271,14 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="37"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="2"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="37"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1366,14 +1299,14 @@
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="37"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="2"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="37"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1394,14 +1327,14 @@
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="2"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="37"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1424,16 +1357,16 @@
       <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="37"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="2"/>
       <c r="F17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="37"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1456,16 +1389,16 @@
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="37"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="2"/>
       <c r="F18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="37"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1488,16 +1421,16 @@
       <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="37"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="2"/>
       <c r="F19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="37"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1520,16 +1453,16 @@
       <c r="A20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="37"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="2"/>
       <c r="F20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="37"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1605,23 +1538,23 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="37" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="16"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1641,19 +1574,15 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20">
-        <v>880</v>
-      </c>
-      <c r="D24" s="21"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="16"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="14"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1673,19 +1602,15 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20">
-        <v>250</v>
-      </c>
-      <c r="D25" s="21"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="16"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="14"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1705,19 +1630,15 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20">
-        <v>880</v>
-      </c>
-      <c r="D26" s="21"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="16"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="14"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1737,19 +1658,15 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20">
-        <v>250</v>
-      </c>
-      <c r="D27" s="21"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="16"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="14"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1769,19 +1686,15 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="20">
-        <v>1050</v>
-      </c>
-      <c r="D28" s="21"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1801,19 +1714,15 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="20">
-        <v>1150</v>
-      </c>
-      <c r="D29" s="21"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1833,21 +1742,15 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="20">
-        <v>60</v>
-      </c>
-      <c r="D30" s="21"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1867,19 +1770,15 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="43"/>
-      <c r="B31" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="20">
-        <v>200</v>
-      </c>
-      <c r="D31" s="21"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -1899,19 +1798,15 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="43"/>
-      <c r="B32" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="20">
-        <v>125</v>
-      </c>
-      <c r="D32" s="21"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -1931,19 +1826,15 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="43"/>
-      <c r="B33" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="20">
-        <v>121</v>
-      </c>
-      <c r="D33" s="21"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -1963,19 +1854,15 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="44"/>
-      <c r="B34" s="20">
-        <v>16</v>
-      </c>
-      <c r="C34" s="20">
-        <v>92</v>
-      </c>
-      <c r="D34" s="21"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -1995,21 +1882,15 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="20">
-        <v>170</v>
-      </c>
-      <c r="D35" s="21"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -2029,19 +1910,15 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="43"/>
-      <c r="B36" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="20">
-        <v>230</v>
-      </c>
-      <c r="D36" s="21"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="42"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -2061,19 +1938,15 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="44"/>
-      <c r="B37" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="20">
-        <v>190</v>
-      </c>
-      <c r="D37" s="21"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="42"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -2093,15 +1966,15 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -2121,15 +1994,15 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -2149,15 +2022,15 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -2177,15 +2050,15 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -2205,15 +2078,15 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -2233,15 +2106,15 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -2261,10 +2134,10 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2289,13 +2162,13 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="26"/>
+      <c r="G45" s="18"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -29057,11 +28930,23 @@
       <c r="Z1000" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="28">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A37"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G14:I14"/>
@@ -29074,20 +28959,6 @@
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/template/potem15.xlsx
+++ b/template/potem15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/print/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5076E8D2-1BFA-D141-9095-665041D5B0D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F9472551-5F0D-D442-8D22-5808A2E2B359}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="32520" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="460" windowWidth="32520" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,22 +98,11 @@
     <t>SIZE</t>
   </si>
   <si>
-    <r>
-      <t>QTY</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(pcs)</t>
-    </r>
+    <t>Unit Price</t>
   </si>
   <si>
-    <t>Unit Price</t>
+    <t>QTY(pcs)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -123,7 +112,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-409]dd/mmm/yy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -157,21 +146,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="SimSun"/>
       <family val="3"/>
@@ -183,21 +157,7 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -435,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -443,32 +403,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -503,13 +444,29 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -867,7 +824,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H8" sqref="H8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1030,18 +987,18 @@
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="1"/>
@@ -1064,18 +1021,18 @@
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="1"/>
@@ -1098,16 +1055,16 @@
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="12"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="1"/>
@@ -1130,16 +1087,16 @@
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="12"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="1"/>
@@ -1187,15 +1144,15 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="1"/>
@@ -1215,19 +1172,19 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="22"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="1"/>
@@ -1247,15 +1204,15 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="24"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="24"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="1"/>
@@ -1275,15 +1232,15 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="24"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="24"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="1"/>
@@ -1303,15 +1260,15 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="24"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="24"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="1"/>
@@ -1331,15 +1288,15 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="24"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="24"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="1"/>
@@ -1359,19 +1316,19 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="24"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="24"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="36"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="1"/>
@@ -1391,19 +1348,19 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="24"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="24"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="1"/>
@@ -1423,19 +1380,19 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="24"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="24"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="36"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="1"/>
@@ -1455,19 +1412,19 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="24"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="24"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="36"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="1"/>
@@ -1487,15 +1444,15 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="1"/>
@@ -1517,7 +1474,7 @@
     <row r="22" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1543,23 +1500,23 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>22</v>
-      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="32"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="1"/>
@@ -1579,15 +1536,15 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="37"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="32"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="1"/>
@@ -1607,15 +1564,15 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="32"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="1"/>
@@ -1635,15 +1592,15 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="37"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="32"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="1"/>
@@ -1663,15 +1620,15 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="34"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="32"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="1"/>
@@ -1691,15 +1648,15 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="34"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="37"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="1"/>
@@ -1719,15 +1676,15 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="40"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="1"/>
@@ -1747,15 +1704,15 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="41"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="1"/>
@@ -1775,15 +1732,15 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="42"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="37"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="1"/>
@@ -1803,15 +1760,15 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="42"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="37"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="1"/>
@@ -1831,15 +1788,15 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="42"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="1"/>
@@ -1859,15 +1816,15 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="42"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="37"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="1"/>
@@ -1887,15 +1844,15 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="46"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="37"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="1"/>
@@ -1915,15 +1872,15 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="42"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="37"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="1"/>
@@ -1943,15 +1900,15 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="42"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="37"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="1"/>
@@ -1971,15 +1928,15 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="1"/>
@@ -1999,15 +1956,15 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="1"/>
@@ -2027,15 +1984,15 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="1"/>
@@ -2055,15 +2012,15 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="1"/>
@@ -2083,15 +2040,15 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="1"/>
@@ -2111,15 +2068,15 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="1"/>
@@ -2139,10 +2096,10 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2167,10 +2124,10 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="4"/>
@@ -28965,7 +28922,7 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="H8:I8"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>

--- a/template/potem15.xlsx
+++ b/template/potem15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/print/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F9472551-5F0D-D442-8D22-5808A2E2B359}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F3C45EE3-AFC0-F54C-B1D5-D138CC468239}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="460" windowWidth="32520" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21880" yWindow="3040" windowWidth="32520" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -421,52 +421,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -824,7 +822,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:I8"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -987,8 +985,8 @@
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
@@ -997,8 +995,8 @@
       <c r="G6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="29"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="32"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="1"/>
@@ -1021,8 +1019,8 @@
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1031,8 +1029,8 @@
       <c r="G7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="1"/>
@@ -1056,15 +1054,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="34"/>
-      <c r="C8" s="33"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="33"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="1"/>
@@ -1087,16 +1085,16 @@
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="33"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="1"/>
@@ -1175,16 +1173,16 @@
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="39"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="1"/>
@@ -1205,14 +1203,14 @@
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="2"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="36"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="1"/>
@@ -1233,14 +1231,14 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="36"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="2"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="36"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="1"/>
@@ -1261,14 +1259,14 @@
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="36"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="2"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="36"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="1"/>
@@ -1289,14 +1287,14 @@
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="36"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="2"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="36"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="1"/>
@@ -1319,16 +1317,16 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="36"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="2"/>
       <c r="F17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="36"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="1"/>
@@ -1351,16 +1349,16 @@
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="36"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="2"/>
       <c r="F18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="36"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="1"/>
@@ -1383,16 +1381,16 @@
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="36"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="2"/>
       <c r="F19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="36"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="1"/>
@@ -1415,16 +1413,16 @@
       <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="36"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="2"/>
       <c r="F20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="36"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="1"/>
@@ -1536,10 +1534,10 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="2"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -1564,10 +1562,10 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="2"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -1592,10 +1590,10 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="2"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
@@ -1620,14 +1618,14 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="2"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
-      <c r="H27" s="21"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="15"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1648,13 +1646,13 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="17"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="2"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="21"/>
+      <c r="G28" s="17"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
       <c r="J28" s="2"/>
@@ -1676,10 +1674,10 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="23"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="2"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -1704,10 +1702,10 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="24"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="2"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -1732,10 +1730,10 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="25"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="2"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -1760,10 +1758,10 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="25"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="2"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
@@ -1788,15 +1786,15 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="1"/>
@@ -1816,12 +1814,12 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="25"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="26"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
@@ -1844,12 +1842,12 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="27"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="26"/>
+      <c r="F35" s="18"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
@@ -1872,10 +1870,10 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="25"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="2"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -1900,10 +1898,10 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="25"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="2"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -1928,10 +1926,10 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="2"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
@@ -1956,10 +1954,10 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="2"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
@@ -1984,15 +1982,15 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="1"/>
@@ -2012,10 +2010,10 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="2"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
@@ -2040,10 +2038,10 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
       <c r="E42" s="2"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
@@ -2068,10 +2066,10 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="2"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -2096,10 +2094,10 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2124,10 +2122,10 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="4"/>
@@ -28893,6 +28891,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="G12:I12"/>
@@ -28909,18 +28919,6 @@
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
